--- a/unique_Dating.xlsx
+++ b/unique_Dating.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>genderLooking</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>userId</t>
-  </si>
-  <si>
-    <t>isSystemProfile</t>
   </si>
   <si>
     <t>locked</t>
@@ -485,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1430</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -613,7 +610,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1791</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -789,14 +786,6 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
         <v>2</v>
       </c>
     </row>
